--- a/cme/on_cashflows.xlsx
+++ b/cme/on_cashflows.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sailing\Desktop\Work\py\quant\cme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\work\repovault\quant\cme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6C14E1-169B-4E28-9370-9F8DBDCD1306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D414C5-575A-4B28-943D-921A654E836F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GNCXD" sheetId="7" r:id="rId1"/>
@@ -24,8 +24,9 @@
     <sheet name="IRCFD" sheetId="6" r:id="rId9"/>
     <sheet name="TLC1D" sheetId="4" r:id="rId10"/>
     <sheet name="YCA6O" sheetId="2" r:id="rId11"/>
-    <sheet name="VSCFD" sheetId="9" r:id="rId12"/>
-    <sheet name="YMCHD" sheetId="11" r:id="rId13"/>
+    <sheet name="RCC9D" sheetId="17" r:id="rId12"/>
+    <sheet name="VSCFD" sheetId="9" r:id="rId13"/>
+    <sheet name="YMCHD" sheetId="11" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="7">
   <si>
     <t>#</t>
   </si>
@@ -572,13 +573,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -601,7 +602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -624,7 +625,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -647,7 +648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -670,7 +671,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -693,7 +694,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -716,7 +717,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -739,7 +740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -762,7 +763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -785,7 +786,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -808,7 +809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -831,7 +832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -854,7 +855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -891,9 +892,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -916,7 +917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -939,7 +940,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -962,7 +963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -985,7 +986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1169,7 +1170,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1192,7 +1193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1215,7 +1216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1248,13 +1249,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45997B82-8BF1-4FC3-9B0B-CDBB379F8C3A}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1323,7 +1324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1415,7 +1416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1484,7 +1485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1553,7 +1554,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1576,7 +1577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1645,7 +1646,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1668,7 +1669,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1691,7 +1692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1743,6 +1744,370 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F4E2DC-B920-4141-B2FA-527CE37F2164}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>42741</v>
+      </c>
+      <c r="C2" s="3">
+        <v>42741</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>42922</v>
+      </c>
+      <c r="C3" s="3">
+        <v>42922</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43106</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43106</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43287</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43287</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43471</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43471</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43652</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43652</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43836</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43836</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44018</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44018</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44202</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44202</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44383</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44383</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44567</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44567</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44748</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44748</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44932</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44932</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45113</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45113</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>100</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C450AD5E-BC0D-4294-82E5-CE5380F73DB8}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -1750,13 +2115,13 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +2144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1802,7 +2167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1825,7 +2190,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1848,7 +2213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1871,7 +2236,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1894,7 +2259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1922,7 +2287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E5622C-DB70-4A80-8350-2C4746F7498F}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -1930,13 +2295,13 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +2324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1982,7 +2347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2005,7 +2370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2028,7 +2393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2051,7 +2416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2074,7 +2439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2097,7 +2462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2120,7 +2485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2143,7 +2508,7 @@
         <v>92.31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2166,7 +2531,7 @@
         <v>84.62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2189,7 +2554,7 @@
         <v>76.930000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2212,7 +2577,7 @@
         <v>69.239999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2235,7 +2600,7 @@
         <v>61.55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2258,7 +2623,7 @@
         <v>53.86</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2281,7 +2646,7 @@
         <v>46.17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2304,7 +2669,7 @@
         <v>38.479999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2327,7 +2692,7 @@
         <v>30.79</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2350,7 +2715,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2373,7 +2738,7 @@
         <v>15.41</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2396,7 +2761,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2432,16 +2797,16 @@
       <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2464,7 +2829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2487,7 +2852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2510,7 +2875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2533,7 +2898,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2556,7 +2921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2579,7 +2944,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2602,7 +2967,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -2625,7 +2990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2648,7 +3013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2684,13 +3049,13 @@
       <selection activeCell="G13" sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2713,7 +3078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2736,7 +3101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2759,7 +3124,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2782,7 +3147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2805,7 +3170,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2828,7 +3193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2851,7 +3216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2874,7 +3239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2897,7 +3262,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -2920,7 +3285,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2943,7 +3308,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2966,7 +3331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -3003,9 +3368,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3028,7 +3393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -3051,7 +3416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -3074,7 +3439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -3097,7 +3462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -3120,7 +3485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -3143,7 +3508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -3166,7 +3531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -3189,7 +3554,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -3212,7 +3577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -3235,7 +3600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -3272,13 +3637,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3301,7 +3666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -3324,7 +3689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -3347,7 +3712,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -3370,7 +3735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -3393,7 +3758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -3416,7 +3781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -3439,7 +3804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -3462,7 +3827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -3485,7 +3850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -3508,7 +3873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -3531,7 +3896,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -3554,7 +3919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -3577,7 +3942,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -3600,7 +3965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -3633,17 +3998,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0C8212-5ADD-4635-8CDA-52FDD110B0A5}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3666,7 +4031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3689,7 +4054,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3712,7 +4077,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3735,7 +4100,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3758,7 +4123,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -3795,9 +4160,9 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3820,7 +4185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3843,7 +4208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3866,7 +4231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3889,7 +4254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3912,7 +4277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3935,7 +4300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -3958,7 +4323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3981,7 +4346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4004,7 +4369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4027,7 +4392,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4050,7 +4415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4073,7 +4438,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4096,7 +4461,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4119,7 +4484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4142,7 +4507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4165,7 +4530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4188,7 +4553,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -4211,7 +4576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4234,7 +4599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4257,7 +4622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4293,13 +4658,13 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4322,7 +4687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4345,7 +4710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4368,7 +4733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4391,7 +4756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4414,7 +4779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4437,7 +4802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4460,7 +4825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4483,7 +4848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4506,7 +4871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4529,7 +4894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4552,7 +4917,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4575,7 +4940,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4598,7 +4963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4621,7 +4986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4644,7 +5009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4667,7 +5032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4690,7 +5055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4713,7 +5078,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4736,7 +5101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -4759,7 +5124,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4796,13 +5161,13 @@
       <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4825,7 +5190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4848,7 +5213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4871,7 +5236,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4894,7 +5259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4917,7 +5282,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4940,7 +5305,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4963,7 +5328,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -4986,7 +5351,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -5009,7 +5374,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -5032,7 +5397,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -5055,7 +5420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -5078,7 +5443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>

--- a/cme/on_cashflows.xlsx
+++ b/cme/on_cashflows.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\work\repovault\quant\cme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sailing\Desktop\Work\py\quant\cme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D414C5-575A-4B28-943D-921A654E836F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6366B665-D74A-4CF0-800E-D4A6CB2D616A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GNCXD" sheetId="7" r:id="rId1"/>
@@ -19,14 +19,16 @@
     <sheet name="TTC1D" sheetId="14" r:id="rId4"/>
     <sheet name="CAC2D" sheetId="16" r:id="rId5"/>
     <sheet name="MGCHD" sheetId="15" r:id="rId6"/>
-    <sheet name="YCAMO" sheetId="3" r:id="rId7"/>
-    <sheet name="BYC2D" sheetId="5" r:id="rId8"/>
-    <sheet name="IRCFD" sheetId="6" r:id="rId9"/>
-    <sheet name="TLC1D" sheetId="4" r:id="rId10"/>
-    <sheet name="YCA6O" sheetId="2" r:id="rId11"/>
-    <sheet name="RCC9D" sheetId="17" r:id="rId12"/>
-    <sheet name="VSCFD" sheetId="9" r:id="rId13"/>
-    <sheet name="YMCHD" sheetId="11" r:id="rId14"/>
+    <sheet name="CSDOD" sheetId="18" r:id="rId7"/>
+    <sheet name="YCAMO" sheetId="3" r:id="rId8"/>
+    <sheet name="BYC2D" sheetId="5" r:id="rId9"/>
+    <sheet name="IRCFD" sheetId="6" r:id="rId10"/>
+    <sheet name="TLC1D" sheetId="4" r:id="rId11"/>
+    <sheet name="TGS25" sheetId="19" r:id="rId12"/>
+    <sheet name="YCA6O" sheetId="2" r:id="rId13"/>
+    <sheet name="RCC9D" sheetId="17" r:id="rId14"/>
+    <sheet name="VSCFD" sheetId="9" r:id="rId15"/>
+    <sheet name="YMCHD" sheetId="11" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="7">
   <si>
     <t>#</t>
   </si>
@@ -213,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -285,6 +287,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -573,13 +578,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -602,7 +607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -625,7 +630,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -648,7 +653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -671,7 +676,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -694,7 +699,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -717,7 +722,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -740,7 +745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -763,7 +768,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -786,7 +791,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -809,7 +814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -832,7 +837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -855,7 +860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -885,16 +890,339 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04B532E-F4B6-4375-B5F8-9D1BF0F1A669}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>44917</v>
+      </c>
+      <c r="C2" s="7">
+        <v>44917</v>
+      </c>
+      <c r="D2" s="6">
+        <v>8.75</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>45099</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45099</v>
+      </c>
+      <c r="D3" s="6">
+        <v>8.75</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>45282</v>
+      </c>
+      <c r="C4" s="7">
+        <v>45282</v>
+      </c>
+      <c r="D4" s="6">
+        <v>8.75</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>45465</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45467</v>
+      </c>
+      <c r="D5" s="6">
+        <v>8.75</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>45648</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45649</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8.75</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>45830</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45831</v>
+      </c>
+      <c r="D7" s="6">
+        <v>8.75</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="G7" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>46013</v>
+      </c>
+      <c r="C8" s="9">
+        <v>46013</v>
+      </c>
+      <c r="D8" s="8">
+        <v>8.75</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>46195</v>
+      </c>
+      <c r="C9" s="7">
+        <v>46195</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8.75</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="G9" s="6">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>46378</v>
+      </c>
+      <c r="C10" s="7">
+        <v>46378</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8.75</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>46560</v>
+      </c>
+      <c r="C11" s="7">
+        <v>46560</v>
+      </c>
+      <c r="D11" s="6">
+        <v>8.75</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>46743</v>
+      </c>
+      <c r="C12" s="7">
+        <v>46743</v>
+      </c>
+      <c r="D12" s="6">
+        <v>8.75</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>46926</v>
+      </c>
+      <c r="C13" s="7">
+        <v>46926</v>
+      </c>
+      <c r="D13" s="6">
+        <v>8.75</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>30</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB39E4E0-5CFB-4814-BB8E-BF75FBE72B9A}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -917,7 +1245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -940,7 +1268,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -963,7 +1291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -986,7 +1314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1009,7 +1337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1032,7 +1360,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1055,7 +1383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1078,7 +1406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1101,7 +1429,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1124,7 +1452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1147,7 +1475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1170,7 +1498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1193,7 +1521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1216,7 +1544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1245,17 +1573,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45997B82-8BF1-4FC3-9B0B-CDBB379F8C3A}">
-  <dimension ref="A1:G21"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC740390-C6AF-417D-8A7C-B2027317F75E}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G21"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,827 +1606,164 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>42397</v>
+        <v>43587</v>
       </c>
       <c r="C2" s="3">
-        <v>42397</v>
-      </c>
-      <c r="D2" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E2" s="16">
-        <v>0</v>
-      </c>
-      <c r="F2" s="16">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43587</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>42579</v>
+        <v>43953</v>
       </c>
       <c r="C3" s="3">
-        <v>42579</v>
-      </c>
-      <c r="D3" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43953</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>42763</v>
+        <v>44318</v>
       </c>
       <c r="C4" s="3">
-        <v>42763</v>
-      </c>
-      <c r="D4" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44318</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>42944</v>
+        <v>44683</v>
       </c>
       <c r="C5" s="3">
-        <v>42944</v>
-      </c>
-      <c r="D5" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44683</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>43128</v>
+        <v>45048</v>
       </c>
       <c r="C6" s="3">
-        <v>43128</v>
-      </c>
-      <c r="D6" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45048</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>43309</v>
+        <v>45414</v>
       </c>
       <c r="C7" s="3">
-        <v>43309</v>
-      </c>
-      <c r="D7" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45414</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>43493</v>
+        <v>45779</v>
       </c>
       <c r="C8" s="3">
-        <v>43493</v>
-      </c>
-      <c r="D8" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>43674</v>
-      </c>
-      <c r="C9" s="3">
-        <v>43674</v>
-      </c>
-      <c r="D9" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>43858</v>
-      </c>
-      <c r="C10" s="3">
-        <v>43858</v>
-      </c>
-      <c r="D10" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44040</v>
-      </c>
-      <c r="C11" s="3">
-        <v>44040</v>
-      </c>
-      <c r="D11" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44224</v>
-      </c>
-      <c r="C12" s="3">
-        <v>44224</v>
-      </c>
-      <c r="D12" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E12" s="16">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44405</v>
-      </c>
-      <c r="C13" s="3">
-        <v>44405</v>
-      </c>
-      <c r="D13" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>44589</v>
-      </c>
-      <c r="C14" s="3">
-        <v>44589</v>
-      </c>
-      <c r="D14" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>44770</v>
-      </c>
-      <c r="C15" s="3">
-        <v>44770</v>
-      </c>
-      <c r="D15" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>44954</v>
-      </c>
-      <c r="C16" s="3">
-        <v>44954</v>
-      </c>
-      <c r="D16" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E16" s="16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>45135</v>
-      </c>
-      <c r="C17" s="3">
-        <v>45135</v>
-      </c>
-      <c r="D17" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>45319</v>
-      </c>
-      <c r="C18" s="3">
-        <v>45319</v>
-      </c>
-      <c r="D18" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>45501</v>
-      </c>
-      <c r="C19" s="3">
-        <v>45501</v>
-      </c>
-      <c r="D19" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-      <c r="G19" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>45685</v>
-      </c>
-      <c r="C20" s="3">
-        <v>45685</v>
-      </c>
-      <c r="D20" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0</v>
-      </c>
-      <c r="G20" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>45866</v>
-      </c>
-      <c r="C21" s="4">
-        <v>45866</v>
-      </c>
-      <c r="D21" s="16">
-        <v>8.5</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-      <c r="F21" s="15">
-        <v>100</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F4E2DC-B920-4141-B2FA-527CE37F2164}">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>42741</v>
-      </c>
-      <c r="C2" s="3">
-        <v>42741</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>42922</v>
-      </c>
-      <c r="C3" s="3">
-        <v>42922</v>
-      </c>
-      <c r="D3" s="2">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>43106</v>
-      </c>
-      <c r="C4" s="3">
-        <v>43106</v>
-      </c>
-      <c r="D4" s="2">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>43287</v>
-      </c>
-      <c r="C5" s="3">
-        <v>43287</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>43471</v>
-      </c>
-      <c r="C6" s="3">
-        <v>43471</v>
-      </c>
-      <c r="D6" s="2">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>43652</v>
-      </c>
-      <c r="C7" s="3">
-        <v>43652</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>43836</v>
-      </c>
-      <c r="C8" s="3">
-        <v>43836</v>
+        <v>45779</v>
       </c>
       <c r="D8" s="2">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44018</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44018</v>
-      </c>
-      <c r="D9" s="2">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44202</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44202</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44383</v>
-      </c>
-      <c r="C11" s="3">
-        <v>44383</v>
-      </c>
-      <c r="D11" s="2">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44567</v>
-      </c>
-      <c r="C12" s="3">
-        <v>44567</v>
-      </c>
-      <c r="D12" s="2">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44748</v>
-      </c>
-      <c r="C13" s="3">
-        <v>44748</v>
-      </c>
-      <c r="D13" s="2">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>44932</v>
-      </c>
-      <c r="C14" s="3">
-        <v>44932</v>
-      </c>
-      <c r="D14" s="2">
-        <v>6</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>45113</v>
-      </c>
-      <c r="C15" s="3">
-        <v>45113</v>
-      </c>
-      <c r="D15" s="2">
-        <v>6</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>100</v>
-      </c>
-      <c r="G15" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2108,6 +1773,868 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45997B82-8BF1-4FC3-9B0B-CDBB379F8C3A}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>42397</v>
+      </c>
+      <c r="C2" s="3">
+        <v>42397</v>
+      </c>
+      <c r="D2" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>42579</v>
+      </c>
+      <c r="C3" s="3">
+        <v>42579</v>
+      </c>
+      <c r="D3" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42763</v>
+      </c>
+      <c r="C4" s="3">
+        <v>42763</v>
+      </c>
+      <c r="D4" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42944</v>
+      </c>
+      <c r="C5" s="3">
+        <v>42944</v>
+      </c>
+      <c r="D5" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43128</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43128</v>
+      </c>
+      <c r="D6" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43309</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43309</v>
+      </c>
+      <c r="D7" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43493</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43493</v>
+      </c>
+      <c r="D8" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43674</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43674</v>
+      </c>
+      <c r="D9" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43858</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43858</v>
+      </c>
+      <c r="D10" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44040</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44040</v>
+      </c>
+      <c r="D11" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44224</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44224</v>
+      </c>
+      <c r="D12" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44405</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44405</v>
+      </c>
+      <c r="D13" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44589</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44589</v>
+      </c>
+      <c r="D14" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44770</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44770</v>
+      </c>
+      <c r="D15" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44954</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44954</v>
+      </c>
+      <c r="D16" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45135</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45135</v>
+      </c>
+      <c r="D17" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45319</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45319</v>
+      </c>
+      <c r="D18" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45501</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45501</v>
+      </c>
+      <c r="D19" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45685</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D20" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>45866</v>
+      </c>
+      <c r="C21" s="4">
+        <v>45866</v>
+      </c>
+      <c r="D21" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <v>100</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F4E2DC-B920-4141-B2FA-527CE37F2164}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>42741</v>
+      </c>
+      <c r="C2" s="3">
+        <v>42741</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>42922</v>
+      </c>
+      <c r="C3" s="3">
+        <v>42922</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43106</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43106</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43287</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43287</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43471</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43471</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43652</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43652</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43836</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43836</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44018</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44018</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44202</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44202</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44383</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44383</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44567</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44567</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44748</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44748</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44932</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44932</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45113</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45113</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>100</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C450AD5E-BC0D-4294-82E5-CE5380F73DB8}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -2115,13 +2642,13 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2144,7 +2671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2167,7 +2694,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2190,7 +2717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2213,7 +2740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2236,7 +2763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2259,7 +2786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2287,21 +2814,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E5622C-DB70-4A80-8350-2C4746F7498F}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2324,7 +2851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2347,7 +2874,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2370,7 +2897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2393,7 +2920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2416,7 +2943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2439,7 +2966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2462,7 +2989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2485,7 +3012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2508,7 +3035,7 @@
         <v>92.31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2531,7 +3058,7 @@
         <v>84.62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2554,7 +3081,7 @@
         <v>76.930000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2577,7 +3104,7 @@
         <v>69.239999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2600,7 +3127,7 @@
         <v>61.55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2623,7 +3150,7 @@
         <v>53.86</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2646,7 +3173,7 @@
         <v>46.17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2669,7 +3196,7 @@
         <v>38.479999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2692,7 +3219,7 @@
         <v>30.79</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2715,7 +3242,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2738,7 +3265,7 @@
         <v>15.41</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2761,7 +3288,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2797,16 +3324,16 @@
       <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2829,7 +3356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2852,7 +3379,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2875,7 +3402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2898,7 +3425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2921,7 +3448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2944,7 +3471,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2967,7 +3494,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -2990,7 +3517,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3013,7 +3540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -3046,16 +3573,16 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="A1:G13"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3078,7 +3605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -3101,7 +3628,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3124,7 +3651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -3147,7 +3674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -3170,7 +3697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -3193,7 +3720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -3216,7 +3743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3239,7 +3766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3262,7 +3789,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -3285,7 +3812,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3308,7 +3835,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -3331,7 +3858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -3368,9 +3895,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3393,7 +3920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -3416,7 +3943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -3439,7 +3966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -3462,7 +3989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -3485,7 +4012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -3508,7 +4035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -3531,7 +4058,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -3554,7 +4081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -3577,7 +4104,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -3600,7 +4127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -3637,13 +4164,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3666,7 +4193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -3689,7 +4216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -3712,7 +4239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -3735,7 +4262,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -3758,7 +4285,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -3781,7 +4308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -3804,7 +4331,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -3827,7 +4354,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -3850,7 +4377,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -3873,7 +4400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -3896,7 +4423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -3919,7 +4446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -3942,7 +4469,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -3965,7 +4492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -3999,16 +4526,16 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4031,7 +4558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4054,7 +4581,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4077,7 +4604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4100,7 +4627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4123,7 +4650,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -4153,6 +4680,205 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D954CA-9F48-49CD-8D10-A0C67541F125}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>43877</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43877</v>
+      </c>
+      <c r="D2" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44059</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44059</v>
+      </c>
+      <c r="D3" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44243</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44243</v>
+      </c>
+      <c r="D4" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44424</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44424</v>
+      </c>
+      <c r="D5" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44608</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44608</v>
+      </c>
+      <c r="D6" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44789</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44789</v>
+      </c>
+      <c r="D7" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44973</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44973</v>
+      </c>
+      <c r="D8" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD80C14D-A00A-4CE6-B50D-19847F306C2A}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -4160,9 +4886,13 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4185,7 +4915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4208,7 +4938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4231,7 +4961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4254,7 +4984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4277,7 +5007,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4300,7 +5030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4323,7 +5053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4346,7 +5076,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4369,7 +5099,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4392,7 +5122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4415,7 +5145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4438,7 +5168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4461,7 +5191,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4484,7 +5214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4507,7 +5237,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4530,7 +5260,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4553,7 +5283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -4576,7 +5306,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4599,7 +5329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4622,7 +5352,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4650,7 +5380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25AEC68-CF81-4BF0-A760-43A5B2F316DF}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -4658,13 +5388,13 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4687,7 +5417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4710,7 +5440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4733,7 +5463,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4756,7 +5486,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4779,7 +5509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4802,7 +5532,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4825,7 +5555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4848,7 +5578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4871,7 +5601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4894,7 +5624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4917,7 +5647,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4940,7 +5670,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4963,7 +5693,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4986,7 +5716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -5009,7 +5739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -5032,7 +5762,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -5055,7 +5785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -5078,7 +5808,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -5101,7 +5831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -5124,7 +5854,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -5144,325 +5874,6 @@
         <v>100</v>
       </c>
       <c r="G21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04B532E-F4B6-4375-B5F8-9D1BF0F1A669}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>44917</v>
-      </c>
-      <c r="C2" s="7">
-        <v>44917</v>
-      </c>
-      <c r="D2" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
-        <v>45099</v>
-      </c>
-      <c r="C3" s="7">
-        <v>45099</v>
-      </c>
-      <c r="D3" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <v>45282</v>
-      </c>
-      <c r="C4" s="7">
-        <v>45282</v>
-      </c>
-      <c r="D4" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>45465</v>
-      </c>
-      <c r="C5" s="7">
-        <v>45467</v>
-      </c>
-      <c r="D5" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="G5" s="6">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>45648</v>
-      </c>
-      <c r="C6" s="7">
-        <v>45649</v>
-      </c>
-      <c r="D6" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>45830</v>
-      </c>
-      <c r="C7" s="7">
-        <v>45831</v>
-      </c>
-      <c r="D7" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="G7" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9">
-        <v>46013</v>
-      </c>
-      <c r="C8" s="9">
-        <v>46013</v>
-      </c>
-      <c r="D8" s="8">
-        <v>8.75</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7">
-        <v>46195</v>
-      </c>
-      <c r="C9" s="7">
-        <v>46195</v>
-      </c>
-      <c r="D9" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="G9" s="6">
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7">
-        <v>46378</v>
-      </c>
-      <c r="C10" s="7">
-        <v>46378</v>
-      </c>
-      <c r="D10" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7">
-        <v>46560</v>
-      </c>
-      <c r="C11" s="7">
-        <v>46560</v>
-      </c>
-      <c r="D11" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="G11" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7">
-        <v>46743</v>
-      </c>
-      <c r="C12" s="7">
-        <v>46743</v>
-      </c>
-      <c r="D12" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7">
-        <v>46926</v>
-      </c>
-      <c r="C13" s="7">
-        <v>46926</v>
-      </c>
-      <c r="D13" s="6">
-        <v>8.75</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>30</v>
-      </c>
-      <c r="G13" s="6">
         <v>0</v>
       </c>
     </row>
